--- a/flows/FXY_fund_flow_data.xlsx
+++ b/flows/FXY_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4285"/>
+  <dimension ref="A1:B4307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43285,6 +43285,226 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4286">
+      <c r="A4286" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B4286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4287">
+      <c r="A4287" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B4287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4288">
+      <c r="A4288" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B4288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4289">
+      <c r="A4289" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4289" t="n">
+        <v>-6.186</v>
+      </c>
+    </row>
+    <row r="4290">
+      <c r="A4290" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4291">
+      <c r="A4291" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4292">
+      <c r="A4292" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4293">
+      <c r="A4293" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4294">
+      <c r="A4294" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4295">
+      <c r="A4295" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4296">
+      <c r="A4296" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4297">
+      <c r="A4297" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4298">
+      <c r="A4298" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4299">
+      <c r="A4299" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4300">
+      <c r="A4300" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4301">
+      <c r="A4301" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4302">
+      <c r="A4302" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4302" t="n">
+        <v>6.299</v>
+      </c>
+    </row>
+    <row r="4303">
+      <c r="A4303" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4304">
+      <c r="A4304" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4305">
+      <c r="A4305" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4306">
+      <c r="A4306" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4306" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="4307">
+      <c r="A4307" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B4307" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
